--- a/Advanced Corporate Reporting/Week 11 - Financial Instruments.xlsx
+++ b/Advanced Corporate Reporting/Week 11 - Financial Instruments.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\University-Resources\Advanced Corporate Reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D743D7E9-0F79-4413-AA42-682DC18A5C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A808E3F0-B683-4917-A1A8-6FC58A60415E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21780" yWindow="4755" windowWidth="12345" windowHeight="12390" activeTab="1" xr2:uid="{9377C72A-D6F7-4967-A2F6-94A69B620D0C}"/>
+    <workbookView xWindow="19245" yWindow="4755" windowWidth="18900" windowHeight="12390" activeTab="1" xr2:uid="{9377C72A-D6F7-4967-A2F6-94A69B620D0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial Questions" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Lecture Notese" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="118">
   <si>
     <t>Oak plc issues 4% loan notes with a nominal value of £ 40,000. The loan notes are</t>
   </si>
@@ -373,12 +373,182 @@
   <si>
     <t>Year 5</t>
   </si>
+  <si>
+    <t>Understanding Compound Financial Instruments (IAS 32)</t>
+  </si>
+  <si>
+    <t>Key Principles:</t>
+  </si>
+  <si>
+    <t>Definition:</t>
+  </si>
+  <si>
+    <t>IAS 32 is pivotal in distinguishing between the liability and equity</t>
+  </si>
+  <si>
+    <t>components of compound financial instruments. A classic example</t>
+  </si>
+  <si>
+    <t>of such an instrument is a convertible bond. These bonds when issued</t>
+  </si>
+  <si>
+    <t>embed both a debt obligation and an option for the bondholder to</t>
+  </si>
+  <si>
+    <t>convert them into equity shares of the issuing company.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">components. The liability portion represents the issuer's obligation to </t>
+  </si>
+  <si>
+    <t>repay the debt, while the equity portion reflects its value.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Separation of Components</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: The core principle is the separation of these</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Measurement of Liability Component:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The fair value of the liability</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">component is determined by discounting the future cash flows associated </t>
+  </si>
+  <si>
+    <t>with the debt. This involves estimating the interest payments and the principal</t>
+  </si>
+  <si>
+    <t>repayment, and then discounting these cash flows to their present value using</t>
+  </si>
+  <si>
+    <t>a market-related discount rate.</t>
+  </si>
+  <si>
+    <r>
+      <t>Derivation of Equity Component:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The equity component's fair value</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is not </t>
+    </r>
+  </si>
+  <si>
+    <t>directly measured. Instead, it's derived as the balancing figure. This means</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it's the difference between the total proceeds received from issuing the instrument </t>
+  </si>
+  <si>
+    <t>and the fair value of the liability component.</t>
+  </si>
+  <si>
+    <t>Example Breakdown:</t>
+  </si>
+  <si>
+    <t>Let's dissect the provided example to illustrate these principles:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV of Final Redemption (£13.5m * 0.567) </t>
+  </si>
+  <si>
+    <t>PV of Annual Interest (£10m * 4% * 3.605)</t>
+  </si>
+  <si>
+    <t>Liability Component (FV)</t>
+  </si>
+  <si>
+    <t>£'000</t>
+  </si>
+  <si>
+    <t>Total Instrument</t>
+  </si>
+  <si>
+    <t>Equity Component</t>
+  </si>
+  <si>
+    <t>Finance Charge (12%)</t>
+  </si>
+  <si>
+    <t>Annual Payment (4%)</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>SPL</t>
+  </si>
+  <si>
+    <t>Statement of Financial Position</t>
+  </si>
+  <si>
+    <t>Non-current liabilities:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convertible debt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equity option </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance charge </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -412,7 +582,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -420,16 +590,156 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,6 +755,67 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>33025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>643840</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F1BF6F-1411-5EE6-9CF4-7ADFE1F45466}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-44000" contrast="100000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6115049" y="985525"/>
+          <a:ext cx="4796741" cy="2100575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -766,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F259CA-A423-441D-80F2-641AD3BA3911}">
   <dimension ref="B2:K70"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,15 +1604,383 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE596340-4F92-461A-B523-F0E5A941C506}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="16" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" s="9">
+        <f>13500*0.567</f>
+        <v>7654.4999999999991</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="P20" s="11">
+        <f>10000*0.04*3.605</f>
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="P21" s="26">
+        <f>P20+P19</f>
+        <v>9096.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="K23" t="s">
+        <v>107</v>
+      </c>
+      <c r="P23" s="9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="P24" s="11">
+        <f>P21</f>
+        <v>9096.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="P25" s="26">
+        <f>P23-P24</f>
+        <v>903.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K28" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K29" s="16">
+        <v>2019</v>
+      </c>
+      <c r="L29" s="12">
+        <f>P21</f>
+        <v>9096.5</v>
+      </c>
+      <c r="M29" s="23">
+        <f>(12/100)*L29</f>
+        <v>1091.58</v>
+      </c>
+      <c r="N29" s="23"/>
+      <c r="O29" s="21">
+        <f>(4/100)*10000</f>
+        <v>400</v>
+      </c>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="13">
+        <f>L29+M29-O29</f>
+        <v>9788.08</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K30" s="16">
+        <v>2020</v>
+      </c>
+      <c r="L30" s="12">
+        <f>Q29</f>
+        <v>9788.08</v>
+      </c>
+      <c r="M30" s="24">
+        <f t="shared" ref="M30:M33" si="0">(12/100)*L30</f>
+        <v>1174.5696</v>
+      </c>
+      <c r="N30" s="24"/>
+      <c r="O30" s="21">
+        <f t="shared" ref="O30:O33" si="1">(4/100)*10000</f>
+        <v>400</v>
+      </c>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="13">
+        <f t="shared" ref="Q30:Q33" si="2">L30+M30-O30</f>
+        <v>10562.649600000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K31" s="16">
+        <v>2021</v>
+      </c>
+      <c r="L31" s="12">
+        <f>Q30</f>
+        <v>10562.649600000001</v>
+      </c>
+      <c r="M31" s="24">
+        <f t="shared" si="0"/>
+        <v>1267.5179519999999</v>
+      </c>
+      <c r="N31" s="24"/>
+      <c r="O31" s="21">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="13">
+        <f t="shared" si="2"/>
+        <v>11430.167552000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K32" s="16">
+        <v>2022</v>
+      </c>
+      <c r="L32" s="12">
+        <f>Q31</f>
+        <v>11430.167552000001</v>
+      </c>
+      <c r="M32" s="24">
+        <f t="shared" si="0"/>
+        <v>1371.62010624</v>
+      </c>
+      <c r="N32" s="24"/>
+      <c r="O32" s="21">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="13">
+        <f t="shared" si="2"/>
+        <v>12401.78765824</v>
+      </c>
+    </row>
+    <row r="33" spans="11:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K33" s="17">
+        <v>2023</v>
+      </c>
+      <c r="L33" s="14">
+        <f t="shared" ref="L31:L33" si="3">Q32</f>
+        <v>12401.78765824</v>
+      </c>
+      <c r="M33" s="25">
+        <f t="shared" si="0"/>
+        <v>1488.2145189887999</v>
+      </c>
+      <c r="N33" s="25"/>
+      <c r="O33" s="22">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="15">
+        <f t="shared" si="2"/>
+        <v>13490.0021772288</v>
+      </c>
+    </row>
+    <row r="36" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K36" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K38" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>115</v>
+      </c>
+      <c r="M39" s="4">
+        <v>9788</v>
+      </c>
+    </row>
+    <row r="41" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K41" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K42" t="s">
+        <v>116</v>
+      </c>
+      <c r="M42">
+        <v>903.5</v>
+      </c>
+    </row>
+    <row r="44" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K44" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
+        <v>117</v>
+      </c>
+      <c r="M45" s="4">
+        <v>1092</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O32:P32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1503,14 +2242,14 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF8D09C3-901A-4B4E-9B15-2C08D6FF588B}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="fc68bb02-cea7-47a7-8486-5fa5775c5400"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="9ad45b7a-dbde-452b-a4a7-7cb6f25a272a"/>
-    <ds:schemaRef ds:uri="fc68bb02-cea7-47a7-8486-5fa5775c5400"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>

--- a/Advanced Corporate Reporting/Week 11 - Financial Instruments.xlsx
+++ b/Advanced Corporate Reporting/Week 11 - Financial Instruments.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\University-Resources\Advanced Corporate Reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A808E3F0-B683-4917-A1A8-6FC58A60415E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1014DE4-771D-4241-A569-A42FCEB3E94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19245" yWindow="4755" windowWidth="18900" windowHeight="12390" activeTab="1" xr2:uid="{9377C72A-D6F7-4967-A2F6-94A69B620D0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial Questions" sheetId="1" r:id="rId1"/>
-    <sheet name="Lecture Notese" sheetId="2" r:id="rId2"/>
+    <sheet name="Lecture Notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1607,7 +1607,7 @@
   <dimension ref="B2:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Advanced Corporate Reporting/Week 11 - Financial Instruments.xlsx
+++ b/Advanced Corporate Reporting/Week 11 - Financial Instruments.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\University-Resources\Advanced Corporate Reporting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ubayd\Documents\GitHub\University-Resources\Advanced Corporate Reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1014DE4-771D-4241-A569-A42FCEB3E94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F3480D2-A2D2-4FCD-BFC0-442D3CB6318D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19245" yWindow="4755" windowWidth="18900" windowHeight="12390" activeTab="1" xr2:uid="{9377C72A-D6F7-4967-A2F6-94A69B620D0C}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="2" xr2:uid="{9377C72A-D6F7-4967-A2F6-94A69B620D0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial Questions" sheetId="1" r:id="rId1"/>
-    <sheet name="Lecture Notes" sheetId="2" r:id="rId2"/>
+    <sheet name="Tutorial Questions Pt.2" sheetId="3" r:id="rId2"/>
+    <sheet name="Tutorial Questions Pt.3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="168">
   <si>
     <t>Oak plc issues 4% loan notes with a nominal value of £ 40,000. The loan notes are</t>
   </si>
@@ -374,182 +375,275 @@
     <t>Year 5</t>
   </si>
   <si>
-    <t>Understanding Compound Financial Instruments (IAS 32)</t>
-  </si>
-  <si>
-    <t>Key Principles:</t>
-  </si>
-  <si>
-    <t>Definition:</t>
-  </si>
-  <si>
-    <t>IAS 32 is pivotal in distinguishing between the liability and equity</t>
-  </si>
-  <si>
-    <t>components of compound financial instruments. A classic example</t>
-  </si>
-  <si>
-    <t>of such an instrument is a convertible bond. These bonds when issued</t>
-  </si>
-  <si>
-    <t>embed both a debt obligation and an option for the bondholder to</t>
-  </si>
-  <si>
-    <t>convert them into equity shares of the issuing company.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">components. The liability portion represents the issuer's obligation to </t>
-  </si>
-  <si>
-    <t>repay the debt, while the equity portion reflects its value.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Separation of Components</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: The core principle is the separation of these</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Measurement of Liability Component:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The fair value of the liability</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">component is determined by discounting the future cash flows associated </t>
-  </si>
-  <si>
-    <t>with the debt. This involves estimating the interest payments and the principal</t>
-  </si>
-  <si>
-    <t>repayment, and then discounting these cash flows to their present value using</t>
-  </si>
-  <si>
-    <t>a market-related discount rate.</t>
-  </si>
-  <si>
-    <r>
-      <t>Derivation of Equity Component:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The equity component's fair value</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is not </t>
-    </r>
-  </si>
-  <si>
-    <t>directly measured. Instead, it's derived as the balancing figure. This means</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it's the difference between the total proceeds received from issuing the instrument </t>
-  </si>
-  <si>
-    <t>and the fair value of the liability component.</t>
-  </si>
-  <si>
-    <t>Example Breakdown:</t>
-  </si>
-  <si>
-    <t>Let's dissect the provided example to illustrate these principles:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PV of Final Redemption (£13.5m * 0.567) </t>
-  </si>
-  <si>
-    <t>PV of Annual Interest (£10m * 4% * 3.605)</t>
-  </si>
-  <si>
-    <t>Liability Component (FV)</t>
-  </si>
-  <si>
-    <t>£'000</t>
-  </si>
-  <si>
-    <t>Total Instrument</t>
-  </si>
-  <si>
-    <t>Equity Component</t>
-  </si>
-  <si>
-    <t>Finance Charge (12%)</t>
-  </si>
-  <si>
-    <t>Annual Payment (4%)</t>
-  </si>
-  <si>
-    <t>Equity</t>
-  </si>
-  <si>
-    <t>SPL</t>
-  </si>
-  <si>
-    <t>Statement of Financial Position</t>
-  </si>
-  <si>
-    <t>Non-current liabilities:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convertible debt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equity option </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finance charge </t>
+    <t>Legolas plc is in the process of finalising its draft financial statement</t>
+  </si>
+  <si>
+    <t>for the year ended 31 May 2019 for publication and has asked for your</t>
+  </si>
+  <si>
+    <t>advice on the appropriate accounting treatment for the following item:</t>
+  </si>
+  <si>
+    <t>On 1 June 2014 Legolas plc borrowed £12.5 million which is stated to be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">irredeemable and to cary interest of 16.24% for the first ten years after </t>
+  </si>
+  <si>
+    <t>which no further payments are required. Annual payments are £203,000</t>
+  </si>
+  <si>
+    <t>in arrears.</t>
+  </si>
+  <si>
+    <t>statement and statement of financial position for the year ended 31 May</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>You are advised that the effective rate of interest is 10% per annum.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepare calculations and appropriate disclosures for the income </t>
+  </si>
+  <si>
+    <t>Year 1 (1 June 2014 - 31 May 2015):</t>
+  </si>
+  <si>
+    <t>Interest Expense: £1,250,000 * 10% = £125,000</t>
+  </si>
+  <si>
+    <t>Annual Payment: £203,000</t>
+  </si>
+  <si>
+    <t>Principal Reduction: £203,000 - £125,000 = £78,000</t>
+  </si>
+  <si>
+    <t>Carrying Amount (31 May 2015): £1,250,000 - £78,000 = £1,172,000</t>
+  </si>
+  <si>
+    <t>Year 2 (1 June 2015 - 31 May 2016):</t>
+  </si>
+  <si>
+    <t>Interest Expense: £1,172,000 * 10% = £117,200</t>
+  </si>
+  <si>
+    <t>Principal Reduction: £203,000 - £117,200 = £85,800</t>
+  </si>
+  <si>
+    <t>Carrying Amount (31 May 2016): £1,172,000 - £85,800 = £1,086,200</t>
+  </si>
+  <si>
+    <t>Year 3 (1 June 2016 - 31 May 2017):</t>
+  </si>
+  <si>
+    <t>Interest Expense: £1,086,200 * 10% = £108,620</t>
+  </si>
+  <si>
+    <t>Principal Reduction: £203,000 - £108,620 = £94,380</t>
+  </si>
+  <si>
+    <t>Carrying Amount (31 May 2017): £1,086,200 - £94,380 = £991,820</t>
+  </si>
+  <si>
+    <t>Year 4 (1 June 2017 - 31 May 2018):</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>Interest Expense: £991,820 * 10% = £99,182</t>
+  </si>
+  <si>
+    <t>Principal Reduction: £203,000 - £99,182 = £103,818</t>
+  </si>
+  <si>
+    <t>Carrying Amount (31 May 2018): £991,920 - £103,818 = £888,002</t>
+  </si>
+  <si>
+    <t>Year 5 (1 June 2018 - 31 May 2019):</t>
+  </si>
+  <si>
+    <t>Interest Expense: £888,002 * 10% = £88,800</t>
+  </si>
+  <si>
+    <t>Principal Reduction: £203,000 - £88,800 = £114,200</t>
+  </si>
+  <si>
+    <t>Carrying Amount (31 May 2019): £882,002 - £114,200 = £773,802</t>
+  </si>
+  <si>
+    <t>Statement of Profit or Loss:</t>
+  </si>
+  <si>
+    <t>Finance Charge/Cost: £88,000</t>
+  </si>
+  <si>
+    <t>(from the interest expense)</t>
+  </si>
+  <si>
+    <t>Statement of Financial Position:</t>
+  </si>
+  <si>
+    <t>Current Liabilities: (203-77) = £126,000</t>
+  </si>
+  <si>
+    <t>Pingway issued a £10 million 3% convertible loan note at</t>
+  </si>
+  <si>
+    <t>par on 1 April 2016 with interest payable annually in arrears.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three years later,  on 31 March 2019, the loan note is </t>
+  </si>
+  <si>
+    <t>convertible into equity shares on the bsais of £100 of loan note</t>
+  </si>
+  <si>
+    <t>for 25 equity shares or it may be redeemed at par in cash at the</t>
+  </si>
+  <si>
+    <t>option of the loan note holder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the company's financial assistants observed that the </t>
+  </si>
+  <si>
+    <t>use of a convertible loan note was preferable to a</t>
+  </si>
+  <si>
+    <t>an interest rate of 8% in order to make it attractive to investors.</t>
+  </si>
+  <si>
+    <t>The assistant has also commented that the use of a convertible</t>
+  </si>
+  <si>
+    <t>loan note will improve theprofit as a result of lower interst</t>
+  </si>
+  <si>
+    <t>equity option, the loan note can be classified as equity which</t>
+  </si>
+  <si>
+    <t>will improve the company's high gearing position.</t>
+  </si>
+  <si>
+    <t>The present value of £1 receivable at the end of the year, based</t>
+  </si>
+  <si>
+    <t>on discount rates of 3% and 8% can be taken as:</t>
+  </si>
+  <si>
+    <t>£</t>
+  </si>
+  <si>
+    <t>End of Year</t>
+  </si>
+  <si>
+    <t>Comment on the financial assistant's observations and show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how the convertible loan note should be accounted for in </t>
+  </si>
+  <si>
+    <t>Pingway's income statement for the year ended 31 March 2019</t>
+  </si>
+  <si>
+    <t>and statement of financial position as at that date. (ACCA)</t>
+  </si>
+  <si>
+    <t>non-convertible loan note as the latter would have required</t>
+  </si>
+  <si>
+    <t>Answer:</t>
+  </si>
+  <si>
+    <t>Accounting correctly for the convertible loan note in accordance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial instruments would mean that virtually all the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">with IAS 32 Financial Instruments: presentation and IFRS 9 </t>
+  </si>
+  <si>
+    <t>Calculating Present Value of the Convertible Loan Notes:</t>
+  </si>
+  <si>
+    <t>Cash Flow</t>
+  </si>
+  <si>
+    <t>PV Factor</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>Present Value of Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Liability Component: </t>
+  </si>
+  <si>
+    <t>Equity Component:</t>
+  </si>
+  <si>
+    <t>(Proceeds - Liability Component)</t>
+  </si>
+  <si>
+    <t>SoFP:</t>
+  </si>
+  <si>
+    <t>Liability: £8,674,000</t>
+  </si>
+  <si>
+    <t>Equity: £1,326,000</t>
+  </si>
+  <si>
+    <t>Year Ended 31 March 2017:</t>
+  </si>
+  <si>
+    <t>Year Ended 31 March 2018:</t>
+  </si>
+  <si>
+    <t>Year Ended 31 March 2019:</t>
+  </si>
+  <si>
+    <t>Year Ended 31 March 2020:</t>
+  </si>
+  <si>
+    <t>Cash Paid:</t>
+  </si>
+  <si>
+    <t>Change in Liability:</t>
+  </si>
+  <si>
+    <t>Opening Liability:</t>
+  </si>
+  <si>
+    <t>costs and, as it is likely that the loan note holders will chose the</t>
+  </si>
+  <si>
+    <t>Closing Liability:</t>
+  </si>
+  <si>
+    <t>(8% is used solely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because it's the </t>
+  </si>
+  <si>
+    <t>interest rate)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -582,7 +676,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -591,9 +685,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -601,16 +701,7 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -619,41 +710,30 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -664,38 +744,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -704,42 +773,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,67 +806,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>33025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>643840</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F1BF6F-1411-5EE6-9CF4-7ADFE1F45466}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId2">
-                  <a14:imgEffect>
-                    <a14:brightnessContrast bright="-44000" contrast="100000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6115049" y="985525"/>
-          <a:ext cx="4796741" cy="2100575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1137,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F259CA-A423-441D-80F2-641AD3BA3911}">
   <dimension ref="B2:K70"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,12 +1201,21 @@
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="3">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4">
         <f>40000*0.025</f>
         <v>1000</v>
       </c>
@@ -1225,14 +1224,25 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="K13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="K14" t="s">
         <v>22</v>
       </c>
@@ -1241,16 +1251,32 @@
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="K15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="K17" t="s">
         <v>24</v>
       </c>
@@ -1259,14 +1285,24 @@
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="K18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K21" s="1" t="s">
@@ -1361,7 +1397,7 @@
       <c r="B36" t="s">
         <v>37</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1501,7 +1537,7 @@
       <c r="B66" t="s">
         <v>76</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="5">
         <v>5700</v>
       </c>
       <c r="E66">
@@ -1511,7 +1547,7 @@
       <c r="G66">
         <v>-400</v>
       </c>
-      <c r="I66" s="4">
+      <c r="I66" s="5">
         <f>D66+E66-G66</f>
         <v>6442</v>
       </c>
@@ -1520,7 +1556,7 @@
       <c r="B67" t="s">
         <v>77</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="5">
         <f>I66</f>
         <v>6442</v>
       </c>
@@ -1531,7 +1567,7 @@
       <c r="G67">
         <v>-400</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I67" s="5">
         <f t="shared" ref="I67:I70" si="1">D67+E67-G67</f>
         <v>7228.52</v>
       </c>
@@ -1540,7 +1576,7 @@
       <c r="B68" t="s">
         <v>78</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="5">
         <f>I67</f>
         <v>7228.52</v>
       </c>
@@ -1551,7 +1587,7 @@
       <c r="G68">
         <v>-400</v>
       </c>
-      <c r="I68" s="4">
+      <c r="I68" s="5">
         <f t="shared" si="1"/>
         <v>8062.2312000000002</v>
       </c>
@@ -1560,7 +1596,7 @@
       <c r="B69" t="s">
         <v>79</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="5">
         <f t="shared" ref="D69:D70" si="2">I68</f>
         <v>8062.2312000000002</v>
       </c>
@@ -1571,7 +1607,7 @@
       <c r="G69">
         <v>-400</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I69" s="5">
         <f t="shared" si="1"/>
         <v>8945.9650720000009</v>
       </c>
@@ -1580,7 +1616,7 @@
       <c r="B70" t="s">
         <v>80</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="5">
         <f t="shared" si="2"/>
         <v>8945.9650720000009</v>
       </c>
@@ -1591,7 +1627,7 @@
       <c r="G70">
         <v>-400</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I70" s="5">
         <f t="shared" si="1"/>
         <v>9882.7229763200012</v>
       </c>
@@ -1603,384 +1639,672 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE596340-4F92-461A-B523-F0E5A941C506}">
-  <dimension ref="B2:Q45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DF043E-B958-44AC-AD78-49E5C1A11674}">
+  <dimension ref="A2:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="E7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" t="s">
+        <v>95</v>
+      </c>
+      <c r="P6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D81050-921F-4297-B35F-4BAE07C65CCF}">
+  <dimension ref="A2:N52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
-    <col min="16" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>94</v>
-      </c>
-      <c r="P18" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="15">
+        <v>300000</v>
+      </c>
+      <c r="I13">
+        <v>0.93</v>
+      </c>
+      <c r="J13" s="15">
+        <f>H13*I13</f>
+        <v>279000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="15">
+        <v>300000</v>
+      </c>
+      <c r="I14">
+        <v>0.86</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" ref="J14:J15" si="0">H14*I14</f>
+        <v>258000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" s="15">
+        <v>300000</v>
+      </c>
+      <c r="I15">
+        <v>0.79</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="0"/>
+        <v>237000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H18" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="I18">
+        <v>0.79</v>
+      </c>
+      <c r="J18" s="15">
+        <f>H18*I18</f>
+        <v>7900000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H21" s="15">
+        <f>J18+J15+J14+J13</f>
+        <v>8674000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>1</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0.97</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H24" s="15">
+        <f>H18-H21</f>
+        <v>1326000</v>
+      </c>
+      <c r="J24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>2</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>3</v>
+      </c>
+      <c r="B26" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H27" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>139</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>162</v>
+      </c>
+      <c r="J34" s="15">
+        <v>8674000</v>
+      </c>
+      <c r="L34" t="s">
+        <v>162</v>
+      </c>
+      <c r="N34" s="16">
+        <f>J52</f>
+        <v>9952821.8880000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>95</v>
-      </c>
-      <c r="K19" t="s">
-        <v>103</v>
-      </c>
-      <c r="P19" s="9">
-        <f>13500*0.567</f>
-        <v>7654.4999999999991</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>96</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="P20" s="11">
-        <f>10000*0.04*3.605</f>
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K21" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L21" s="1"/>
-      <c r="P21" s="26">
-        <f>P20+P19</f>
-        <v>9096.5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="K23" t="s">
-        <v>107</v>
-      </c>
-      <c r="P23" s="9">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="P24" s="11">
-        <f>P21</f>
-        <v>9096.5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>100</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L25" s="1"/>
-      <c r="P25" s="26">
-        <f>P23-P24</f>
-        <v>903.5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K28" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="L28" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="M28" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K29" s="16">
-        <v>2019</v>
-      </c>
-      <c r="L29" s="12">
-        <f>P21</f>
-        <v>9096.5</v>
-      </c>
-      <c r="M29" s="23">
-        <f>(12/100)*L29</f>
-        <v>1091.58</v>
-      </c>
-      <c r="N29" s="23"/>
-      <c r="O29" s="21">
-        <f>(4/100)*10000</f>
-        <v>400</v>
-      </c>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="13">
-        <f>L29+M29-O29</f>
-        <v>9788.08</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K30" s="16">
-        <v>2020</v>
-      </c>
-      <c r="L30" s="12">
-        <f>Q29</f>
-        <v>9788.08</v>
-      </c>
-      <c r="M30" s="24">
-        <f t="shared" ref="M30:M33" si="0">(12/100)*L30</f>
-        <v>1174.5696</v>
-      </c>
-      <c r="N30" s="24"/>
-      <c r="O30" s="21">
-        <f t="shared" ref="O30:O33" si="1">(4/100)*10000</f>
-        <v>400</v>
-      </c>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="13">
-        <f t="shared" ref="Q30:Q33" si="2">L30+M30-O30</f>
-        <v>10562.649600000001</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K31" s="16">
-        <v>2021</v>
-      </c>
-      <c r="L31" s="12">
-        <f>Q30</f>
-        <v>10562.649600000001</v>
-      </c>
-      <c r="M31" s="24">
-        <f t="shared" si="0"/>
-        <v>1267.5179519999999</v>
-      </c>
-      <c r="N31" s="24"/>
-      <c r="O31" s="21">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="13">
-        <f t="shared" si="2"/>
-        <v>11430.167552000001</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K32" s="16">
-        <v>2022</v>
-      </c>
-      <c r="L32" s="12">
-        <f>Q31</f>
-        <v>11430.167552000001</v>
-      </c>
-      <c r="M32" s="24">
-        <f t="shared" si="0"/>
-        <v>1371.62010624</v>
-      </c>
-      <c r="N32" s="24"/>
-      <c r="O32" s="21">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="13">
-        <f t="shared" si="2"/>
-        <v>12401.78765824</v>
-      </c>
-    </row>
-    <row r="33" spans="11:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K33" s="17">
-        <v>2023</v>
-      </c>
-      <c r="L33" s="14">
-        <f t="shared" ref="L31:L33" si="3">Q32</f>
-        <v>12401.78765824</v>
-      </c>
-      <c r="M33" s="25">
-        <f t="shared" si="0"/>
-        <v>1488.2145189887999</v>
-      </c>
-      <c r="N33" s="25"/>
-      <c r="O33" s="22">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="15">
-        <f t="shared" si="2"/>
-        <v>13490.0021772288</v>
-      </c>
-    </row>
-    <row r="36" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K36" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K38" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K39" t="s">
-        <v>115</v>
-      </c>
-      <c r="M39" s="4">
-        <v>9788</v>
-      </c>
-    </row>
-    <row r="41" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K41" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K42" t="s">
-        <v>116</v>
-      </c>
-      <c r="M42">
-        <v>903.5</v>
-      </c>
-    </row>
-    <row r="44" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K44" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K45" t="s">
-        <v>117</v>
-      </c>
-      <c r="M45" s="4">
-        <v>1092</v>
+      <c r="J35" s="15">
+        <f>J34*(8/100)</f>
+        <v>693920</v>
+      </c>
+      <c r="L35" t="s">
+        <v>106</v>
+      </c>
+      <c r="N35" s="16">
+        <f>(8/100)*N34</f>
+        <v>796225.75104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>160</v>
+      </c>
+      <c r="J36" s="15">
+        <v>300000</v>
+      </c>
+      <c r="L36" t="s">
+        <v>160</v>
+      </c>
+      <c r="N36" s="15">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>161</v>
+      </c>
+      <c r="J37" s="15">
+        <f>J35-J36</f>
+        <v>393920</v>
+      </c>
+      <c r="L37" t="s">
+        <v>161</v>
+      </c>
+      <c r="N37" s="16">
+        <f>N35-N36</f>
+        <v>496225.75104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>164</v>
+      </c>
+      <c r="J38" s="15">
+        <f>J34+J37</f>
+        <v>9067920</v>
+      </c>
+      <c r="L38" t="s">
+        <v>164</v>
+      </c>
+      <c r="N38" s="16">
+        <f>N34+N37</f>
+        <v>10449047.639040001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H40" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>162</v>
+      </c>
+      <c r="J41" s="15">
+        <f>J38</f>
+        <v>9067920</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>106</v>
+      </c>
+      <c r="J42" s="16">
+        <f>(8/100)*J41</f>
+        <v>725433.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>160</v>
+      </c>
+      <c r="J43" s="15">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>161</v>
+      </c>
+      <c r="J44" s="16">
+        <f>J42-J43</f>
+        <v>425433.59999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>164</v>
+      </c>
+      <c r="J45" s="16">
+        <f>J41+J44</f>
+        <v>9493353.5999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H47" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>162</v>
+      </c>
+      <c r="J48" s="16">
+        <f>J45</f>
+        <v>9493353.5999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>106</v>
+      </c>
+      <c r="J49" s="16">
+        <f>J48*(8/100)</f>
+        <v>759468.28799999994</v>
+      </c>
+    </row>
+    <row r="50" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>160</v>
+      </c>
+      <c r="J50" s="15">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="51" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>161</v>
+      </c>
+      <c r="J51" s="16">
+        <f>J49-J50</f>
+        <v>459468.28799999994</v>
+      </c>
+    </row>
+    <row r="52" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>164</v>
+      </c>
+      <c r="J52" s="16">
+        <f>J48+J51</f>
+        <v>9952821.8880000003</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="O32:P32"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2204,20 +2528,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fc68bb02-cea7-47a7-8486-5fa5775c5400" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fc68bb02-cea7-47a7-8486-5fa5775c5400" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2240,23 +2564,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF8D09C3-901A-4B4E-9B15-2C08D6FF588B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="fc68bb02-cea7-47a7-8486-5fa5775c5400"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9ad45b7a-dbde-452b-a4a7-7cb6f25a272a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C1E77F8-12CE-44D2-B3DC-502A009B49C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2264,8 +2571,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{b52e9fda-0691-4585-bdfc-5ccae1ce1890}" enabled="0" method="" siteId="{b52e9fda-0691-4585-bdfc-5ccae1ce1890}" removed="1"/>
-</clbl:labelList>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF8D09C3-901A-4B4E-9B15-2C08D6FF588B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="fc68bb02-cea7-47a7-8486-5fa5775c5400"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="9ad45b7a-dbde-452b-a4a7-7cb6f25a272a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>